--- a/08 Project Management/Risikoanalyse.xlsx
+++ b/08 Project Management/Risikoanalyse.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C05D76-27D2-4630-A729-0FF081C2D7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEA04B6-9384-433F-B0EA-A557DBEDE9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE190DE6-1E90-4D93-B916-00814C242BC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
+    <sheet name="Konsekvensskala" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Risikoanalyse for 1AarsProjekt</t>
   </si>
@@ -63,27 +63,6 @@
     <t>Revideret prioritet</t>
   </si>
   <si>
-    <t>Projektet forsinkes</t>
-  </si>
-  <si>
-    <t>Manglende data</t>
-  </si>
-  <si>
-    <t>Mindre irritation for enkelte studerende</t>
-  </si>
-  <si>
-    <t>Arbejdsprocessen bremses markant</t>
-  </si>
-  <si>
-    <t>Systemet skal laves om</t>
-  </si>
-  <si>
-    <t>Inaktivitet hos den enkelte studerende</t>
-  </si>
-  <si>
-    <t>Arbejdet går i stå</t>
-  </si>
-  <si>
     <t>Internettet hos et gruppemedlem stopper med at virke i &lt; time</t>
   </si>
   <si>
@@ -150,9 +129,6 @@
     <t>Gruppemedlem bliver syg så han ikke kan arbejde</t>
   </si>
   <si>
-    <t>Vi kan ikke få vejledning fra lærer fra 1 - 4 timer</t>
-  </si>
-  <si>
     <t>Projektet kan ikke blive færdigt. Der vil være markant ændring i artefakter eller kode</t>
   </si>
   <si>
@@ -190,6 +166,114 @@
   </si>
   <si>
     <t>Ingen konsekvens</t>
+  </si>
+  <si>
+    <t>Konsekvensgrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindre frustationer </t>
+  </si>
+  <si>
+    <t>Projektet forsinkes med 1 time</t>
+  </si>
+  <si>
+    <t>Projektet forsinkes med 4 timer</t>
+  </si>
+  <si>
+    <t>Projektet forsinkes med en dag.</t>
+  </si>
+  <si>
+    <t>Projektet ender med ikke at være fyldestgørende</t>
+  </si>
+  <si>
+    <t>Manglende internet</t>
+  </si>
+  <si>
+    <t>Hvis internettet mangler får vi problemer med at kommunikere og uploade eller downloade commits,</t>
+  </si>
+  <si>
+    <t>for at løse dette vil vi sørge for altid at have en plan klar til dagen efter om aftenen.</t>
+  </si>
+  <si>
+    <t>Planen vil vise hvem der skal lave hvad, så der vil være mulighed for at komme i arbejde.</t>
+  </si>
+  <si>
+    <t>Manglende pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hvis en i gruppen mangler en pc eller den bryder ned vil personen ikke kunne lave noget. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For at løse dette vil der være mulighed for at låne en pc af en anden i gruppen. </t>
+  </si>
+  <si>
+    <t>Der skal dog installeres de nødvendige programmer.</t>
+  </si>
+  <si>
+    <t>Merge conflicts</t>
+  </si>
+  <si>
+    <t>Skaber irritation der resulterer i mindre tidsspild</t>
+  </si>
+  <si>
+    <t>Aflysning af kundemøde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For at løse dette vil vi have mulighed for at kontakte ham efterfølgende for feedback, </t>
+  </si>
+  <si>
+    <t>eller arbejde videre med vores løsning, da den vil have de grundlæggende funktioner.</t>
+  </si>
+  <si>
+    <t>Manglende vejledning fra lærer</t>
+  </si>
+  <si>
+    <t>Hvis en lærer ikke kan give vejledning til en del af opgave vil vi have svært ved at komme videre.</t>
+  </si>
+  <si>
+    <t>For at komme videre i projektet vil vi skulle have direkte kontakt via tlf, arbejde videre i en anden del</t>
+  </si>
+  <si>
+    <t>af projektet eller forsøge med den del vi sidder fast i og eventuelt lave det om.</t>
+  </si>
+  <si>
+    <t>Vi kan ikke udføre funktionelle krav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvis vi ikke kan udføre funktionelle krav vil essentielle dele af projektet ikke virke. </t>
+  </si>
+  <si>
+    <t>Det vi kan gøre for at komme videre er vejledning, for hvis vi ikke kan løse de funktionelle krav er lærerne voes løsning.</t>
+  </si>
+  <si>
+    <t>Hvis vorea API ikke virker vil vi have svært ved at tilfredsstille kundens behov.</t>
+  </si>
+  <si>
+    <t>I stedet vil vi skulle indføre vores data selv, for at vise at programmet er funktionelt.</t>
+  </si>
+  <si>
+    <t>Utrilstrækkelig viden</t>
+  </si>
+  <si>
+    <t>Nogen i gruppen vil på et tidspunkt støde ind i noget som de har begrænset viden om.</t>
+  </si>
+  <si>
+    <t>Her vil man skulle studere eller søge hjælp i gruppen for at skabe forståelse og løse problemet.</t>
+  </si>
+  <si>
+    <t>De ikke funktionelle krav er ikke essentielle for at programmet fungerer.</t>
+  </si>
+  <si>
+    <t>De funktionelle krav giver programmet en god brugeroplevelse.</t>
+  </si>
+  <si>
+    <t>For at komme det til livs har vi mulighed for at søge hjælp, eller referere til utilstrækkelig viden.</t>
+  </si>
+  <si>
+    <t>Hvis kunden aflyser mødet vil vi få problemer med at opdatere vores viden i forhold til hvad produktet skal kunne.</t>
+  </si>
+  <si>
+    <t>Vi kan ikke få vejledning fra lærer i 1 - 4 timer</t>
   </si>
 </sst>
 </file>
@@ -362,8 +446,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA9672DC-B1E6-4599-8377-A6F9565F6020}" name="Tabel1" displayName="Tabel1" ref="A3:H28" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A3:H28" xr:uid="{6713E607-B491-4185-8BC4-94A1D0A36D36}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA9672DC-B1E6-4599-8377-A6F9565F6020}" name="Tabel1" displayName="Tabel1" ref="A3:H18" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A3:H18" xr:uid="{6713E607-B491-4185-8BC4-94A1D0A36D36}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H28">
     <sortCondition descending="1" ref="E3:E28"/>
   </sortState>
@@ -684,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE27D4D3-7CEA-4236-BCB2-4A3F0B79B11D}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,14 +784,15 @@
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -732,38 +817,49 @@
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>0.05</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.15000000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>0.02</v>
@@ -772,167 +868,190 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>0.06</v>
       </c>
       <c r="F5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
         <v>0.1</v>
       </c>
-      <c r="G5" s="4">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="11">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>0.01</v>
       </c>
       <c r="C6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F6" s="3">
-        <v>0.85</v>
+        <v>0.01</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3">
         <v>0.05</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="3">
-        <f>10/100</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <v>0.05</v>
       </c>
       <c r="C8" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="7">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3">
         <v>0.9</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="F9" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>0.6</v>
       </c>
       <c r="C10" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="F10" s="3">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>0.1</v>
@@ -941,54 +1060,52 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>0.5</v>
       </c>
       <c r="F11" s="3">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7">
         <v>0.8</v>
       </c>
       <c r="C12" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>3.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="F12" s="7">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
         <v>0.2</v>
@@ -997,54 +1114,52 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>0.8</v>
       </c>
       <c r="F13" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F14" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
         <v>0.9</v>
@@ -1053,26 +1168,25 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>3.6</v>
       </c>
       <c r="F15" s="3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <f>100/100</f>
@@ -1082,341 +1196,290 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
         <v>3</v>
       </c>
       <c r="F16" s="3">
-        <f>100/100</f>
         <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>0.4</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F17" s="3">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
       <c r="B18" s="3">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5">
         <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="3">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f>99/100</f>
-        <v>0.99</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.99</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <f>0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.8</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.2</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <f>0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.4</v>
-      </c>
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <f>15/100</f>
-        <v>0.15</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.6</v>
-      </c>
-      <c r="F22" s="3">
-        <f>15/100</f>
-        <v>0.15</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.3</v>
-      </c>
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>3</v>
-      </c>
-      <c r="H23" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.30000000000000004</v>
-      </c>
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <f>5/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.25</v>
-      </c>
-      <c r="F24" s="3">
-        <f>5/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <f>5/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.05</v>
-      </c>
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0</v>
-      </c>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <f>0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="C26" s="4">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.05</v>
-      </c>
-      <c r="F26" s="3">
-        <f>0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4</v>
-      </c>
-      <c r="H26" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.04</v>
-      </c>
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <f>1/100</f>
-        <v>0.01</v>
-      </c>
-      <c r="C27" s="4">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>0.04</v>
-      </c>
-      <c r="F27" s="3">
-        <f>1/100</f>
-        <v>0.01</v>
-      </c>
-      <c r="G27" s="4">
-        <v>3</v>
-      </c>
-      <c r="H27" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>0.03</v>
-      </c>
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <f>5/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="5">
-        <f>Tabel1[[#This Row],[Sandsynlighed i %]]*Tabel1[[#This Row],[Konsekvensskala]]</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F28" s="3">
-        <f>5/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G28" s="4">
-        <v>3</v>
-      </c>
-      <c r="H28" s="5">
-        <f>Tabel1[[#This Row],[Revideret sandsynlighed]]*Tabel1[[#This Row],[Revideret konsekvens]]</f>
-        <v>1.4999999999999999E-2</v>
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1426,17 +1489,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Risikoanalyse.xlsx
+++ b/08 Project Management/Risikoanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Documents\GitHub\1AarsProjekt\08 Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEA04B6-9384-433F-B0EA-A557DBEDE9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDCBC86-3893-446D-A197-E0926865AB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE190DE6-1E90-4D93-B916-00814C242BC3}"/>
+    <workbookView xWindow="3390" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FE190DE6-1E90-4D93-B916-00814C242BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
@@ -261,12 +261,6 @@
     <t>Her vil man skulle studere eller søge hjælp i gruppen for at skabe forståelse og løse problemet.</t>
   </si>
   <si>
-    <t>De ikke funktionelle krav er ikke essentielle for at programmet fungerer.</t>
-  </si>
-  <si>
-    <t>De funktionelle krav giver programmet en god brugeroplevelse.</t>
-  </si>
-  <si>
     <t>For at komme det til livs har vi mulighed for at søge hjælp, eller referere til utilstrækkelig viden.</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>Vi kan ikke få vejledning fra lærer i 1 - 4 timer</t>
+  </si>
+  <si>
+    <t>De ikke-funktionelle krav giver programmet en god brugeroplevelse.</t>
+  </si>
+  <si>
+    <t>De ikke-funktionelle krav er ikke essentielle for at programmet fungerer.</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE27D4D3-7CEA-4236-BCB2-4A3F0B79B11D}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3">
         <v>0.9</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1462,17 +1462,17 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
